--- a/NIFTY/CARachna.xlsx
+++ b/NIFTY/CARachna.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart pattern" sheetId="1" r:id="rId1"/>
+    <sheet name="Indicators" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>bullish engulfing</t>
   </si>
@@ -55,6 +56,24 @@
   </si>
   <si>
     <t>uptrend</t>
+  </si>
+  <si>
+    <t>Hanging hammer</t>
+  </si>
+  <si>
+    <t>shooting star</t>
+  </si>
+  <si>
+    <t>MACD</t>
+  </si>
+  <si>
+    <t>EMA</t>
+  </si>
+  <si>
+    <t>Exponential moving average</t>
+  </si>
+  <si>
+    <t>Moving Average Convergence/Divergence indicator</t>
   </si>
 </sst>
 </file>
@@ -605,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,8 +711,50 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>